--- a/price/data.xlsx
+++ b/price/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17-01-2024 00:00:00</t>
+          <t>15-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3911748</v>
+        <v>8516492</v>
       </c>
       <c r="D2" t="n">
-        <v>578.05</v>
+        <v>537.05</v>
       </c>
       <c r="E2" t="n">
-        <v>574.75</v>
+        <v>546.3</v>
       </c>
       <c r="F2" t="n">
-        <v>580.75</v>
+        <v>560.85</v>
       </c>
       <c r="G2" t="n">
-        <v>569.8</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3">
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>18-01-2024 00:00:00</t>
+          <t>16-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2081619</v>
+        <v>6239315</v>
       </c>
       <c r="D3" t="n">
-        <v>575.8</v>
+        <v>546.3</v>
       </c>
       <c r="E3" t="n">
-        <v>573.95</v>
+        <v>532.95</v>
       </c>
       <c r="F3" t="n">
-        <v>578.15</v>
+        <v>550.8</v>
       </c>
       <c r="G3" t="n">
-        <v>571.85</v>
+        <v>523.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,23 +521,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19-01-2024 00:00:00</t>
+          <t>17-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2645181</v>
+        <v>4620505</v>
       </c>
       <c r="D4" t="n">
-        <v>573.95</v>
+        <v>539</v>
       </c>
       <c r="E4" t="n">
-        <v>574.95</v>
+        <v>544.45</v>
       </c>
       <c r="F4" t="n">
-        <v>577.6</v>
+        <v>544.9</v>
       </c>
       <c r="G4" t="n">
-        <v>570.6</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
@@ -546,23 +546,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22-01-2024 00:00:00</t>
+          <t>18-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1873302</v>
+        <v>2583363</v>
       </c>
       <c r="D5" t="n">
-        <v>575.2</v>
+        <v>544</v>
       </c>
       <c r="E5" t="n">
-        <v>577.95</v>
+        <v>548.2</v>
       </c>
       <c r="F5" t="n">
-        <v>579.7</v>
+        <v>548.65</v>
       </c>
       <c r="G5" t="n">
-        <v>575.2</v>
+        <v>540.15</v>
       </c>
     </row>
     <row r="6">
@@ -571,23 +571,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23-01-2024 00:00:00</t>
+          <t>21-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1421415</v>
+        <v>2210109</v>
       </c>
       <c r="D6" t="n">
-        <v>578.95</v>
+        <v>549</v>
       </c>
       <c r="E6" t="n">
-        <v>579.9</v>
+        <v>547.45</v>
       </c>
       <c r="F6" t="n">
-        <v>580.5</v>
+        <v>553</v>
       </c>
       <c r="G6" t="n">
-        <v>576.5</v>
+        <v>545.05</v>
       </c>
     </row>
     <row r="7">
@@ -596,23 +596,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>24-01-2024 00:00:00</t>
+          <t>22-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1844368</v>
+        <v>2560556</v>
       </c>
       <c r="D7" t="n">
-        <v>580.35</v>
+        <v>548</v>
       </c>
       <c r="E7" t="n">
-        <v>575.75</v>
+        <v>549.5</v>
       </c>
       <c r="F7" t="n">
-        <v>582.15</v>
+        <v>550.45</v>
       </c>
       <c r="G7" t="n">
-        <v>572.1</v>
+        <v>542.3</v>
       </c>
     </row>
     <row r="8">
@@ -621,23 +621,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25-01-2024 00:00:00</t>
+          <t>23-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1874962</v>
+        <v>4535376</v>
       </c>
       <c r="D8" t="n">
-        <v>573.85</v>
+        <v>549.55</v>
       </c>
       <c r="E8" t="n">
-        <v>574.65</v>
+        <v>534.5</v>
       </c>
       <c r="F8" t="n">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="G8" t="n">
-        <v>572.6</v>
+        <v>529.55</v>
       </c>
     </row>
     <row r="9">
@@ -646,23 +646,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26-01-2024 00:00:00</t>
+          <t>24-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1547572</v>
+        <v>1958712</v>
       </c>
       <c r="D9" t="n">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="E9" t="n">
-        <v>573.9</v>
+        <v>539.8</v>
       </c>
       <c r="F9" t="n">
-        <v>577.65</v>
+        <v>541.5</v>
       </c>
       <c r="G9" t="n">
-        <v>572.35</v>
+        <v>533.35</v>
       </c>
     </row>
     <row r="10">
@@ -671,23 +671,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29-01-2024 00:00:00</t>
+          <t>25-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3555435</v>
+        <v>1546465</v>
       </c>
       <c r="D10" t="n">
-        <v>574.5</v>
+        <v>541</v>
       </c>
       <c r="E10" t="n">
-        <v>575.75</v>
+        <v>538.85</v>
       </c>
       <c r="F10" t="n">
-        <v>580.45</v>
+        <v>541.5</v>
       </c>
       <c r="G10" t="n">
-        <v>573</v>
+        <v>536.2</v>
       </c>
     </row>
     <row r="11">
@@ -696,23 +696,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>30-01-2024 00:00:00</t>
+          <t>28-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2241184</v>
+        <v>2733712</v>
       </c>
       <c r="D11" t="n">
-        <v>576.35</v>
+        <v>540.05</v>
       </c>
       <c r="E11" t="n">
-        <v>573.95</v>
+        <v>545.55</v>
       </c>
       <c r="F11" t="n">
-        <v>578.45</v>
+        <v>546</v>
       </c>
       <c r="G11" t="n">
-        <v>572.6</v>
+        <v>537.5</v>
       </c>
     </row>
     <row r="12">
@@ -721,23 +721,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31-01-2024 00:00:00</t>
+          <t>29-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3281866</v>
+        <v>4401756</v>
       </c>
       <c r="D12" t="n">
-        <v>574.3</v>
+        <v>545.35</v>
       </c>
       <c r="E12" t="n">
-        <v>575</v>
+        <v>558.3</v>
       </c>
       <c r="F12" t="n">
-        <v>576.5</v>
+        <v>559.3</v>
       </c>
       <c r="G12" t="n">
-        <v>572</v>
+        <v>539.05</v>
       </c>
     </row>
     <row r="13">
@@ -746,23 +746,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01-02-2024 00:00:00</t>
+          <t>30-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4626022</v>
+        <v>6167526</v>
       </c>
       <c r="D13" t="n">
-        <v>575.5</v>
+        <v>562</v>
       </c>
       <c r="E13" t="n">
-        <v>576.5</v>
+        <v>556.9</v>
       </c>
       <c r="F13" t="n">
-        <v>582</v>
+        <v>564.4</v>
       </c>
       <c r="G13" t="n">
-        <v>574</v>
+        <v>550.65</v>
       </c>
     </row>
     <row r="14">
@@ -771,23 +771,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02-02-2024 00:00:00</t>
+          <t>31-08-2023 00:00:00</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5216251</v>
+        <v>2579148</v>
       </c>
       <c r="D14" t="n">
-        <v>577</v>
+        <v>557.1</v>
       </c>
       <c r="E14" t="n">
-        <v>583.95</v>
+        <v>556.15</v>
       </c>
       <c r="F14" t="n">
-        <v>584.95</v>
+        <v>558.45</v>
       </c>
       <c r="G14" t="n">
-        <v>574.5</v>
+        <v>553.55</v>
       </c>
     </row>
     <row r="15">
@@ -796,23 +796,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>05-02-2024 00:00:00</t>
+          <t>01-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5224734</v>
+        <v>2653686</v>
       </c>
       <c r="D15" t="n">
-        <v>584.05</v>
+        <v>556.5</v>
       </c>
       <c r="E15" t="n">
-        <v>592</v>
+        <v>559.15</v>
       </c>
       <c r="F15" t="n">
-        <v>592.95</v>
+        <v>559.65</v>
       </c>
       <c r="G15" t="n">
-        <v>584.05</v>
+        <v>553.05</v>
       </c>
     </row>
     <row r="16">
@@ -821,23 +821,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06-02-2024 00:00:00</t>
+          <t>04-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2085502</v>
+        <v>4194716</v>
       </c>
       <c r="D16" t="n">
-        <v>593</v>
+        <v>559.95</v>
       </c>
       <c r="E16" t="n">
-        <v>593.55</v>
+        <v>567.25</v>
       </c>
       <c r="F16" t="n">
-        <v>593.75</v>
+        <v>568.8</v>
       </c>
       <c r="G16" t="n">
-        <v>590.5</v>
+        <v>559.9</v>
       </c>
     </row>
     <row r="17">
@@ -846,23 +846,23 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>07-02-2024 00:00:00</t>
+          <t>05-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4035754</v>
+        <v>6406793</v>
       </c>
       <c r="D17" t="n">
-        <v>593.7</v>
+        <v>568</v>
       </c>
       <c r="E17" t="n">
-        <v>589.7</v>
+        <v>574.4</v>
       </c>
       <c r="F17" t="n">
-        <v>595.7</v>
+        <v>575.75</v>
       </c>
       <c r="G17" t="n">
-        <v>588.8</v>
+        <v>565.05</v>
       </c>
     </row>
     <row r="18">
@@ -871,23 +871,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>08-02-2024 00:00:00</t>
+          <t>06-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3315152</v>
+        <v>4784201</v>
       </c>
       <c r="D18" t="n">
-        <v>586.05</v>
+        <v>574.5</v>
       </c>
       <c r="E18" t="n">
-        <v>587.75</v>
+        <v>578.8</v>
       </c>
       <c r="F18" t="n">
-        <v>591.4</v>
+        <v>582.25</v>
       </c>
       <c r="G18" t="n">
-        <v>580</v>
+        <v>570.15</v>
       </c>
     </row>
     <row r="19">
@@ -896,23 +896,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09-02-2024 00:00:00</t>
+          <t>07-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2551037</v>
+        <v>7017201</v>
       </c>
       <c r="D19" t="n">
-        <v>587.8</v>
+        <v>578.8</v>
       </c>
       <c r="E19" t="n">
-        <v>589.75</v>
+        <v>564.6</v>
       </c>
       <c r="F19" t="n">
-        <v>592.9</v>
+        <v>584</v>
       </c>
       <c r="G19" t="n">
-        <v>586.6</v>
+        <v>555.25</v>
       </c>
     </row>
     <row r="20">
@@ -921,23 +921,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12-02-2024 00:00:00</t>
+          <t>08-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2669101</v>
+        <v>3261457</v>
       </c>
       <c r="D20" t="n">
-        <v>590.1</v>
+        <v>564.5</v>
       </c>
       <c r="E20" t="n">
-        <v>588.95</v>
+        <v>557.95</v>
       </c>
       <c r="F20" t="n">
-        <v>592.35</v>
+        <v>567.45</v>
       </c>
       <c r="G20" t="n">
-        <v>585</v>
+        <v>552.6</v>
       </c>
     </row>
     <row r="21">
@@ -946,23 +946,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13-02-2024 00:00:00</t>
+          <t>11-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2388838</v>
+        <v>4188570</v>
       </c>
       <c r="D21" t="n">
-        <v>590</v>
+        <v>557.5</v>
       </c>
       <c r="E21" t="n">
-        <v>592.75</v>
+        <v>549.1</v>
       </c>
       <c r="F21" t="n">
-        <v>593.45</v>
+        <v>558.25</v>
       </c>
       <c r="G21" t="n">
-        <v>589.55</v>
+        <v>542.05</v>
       </c>
     </row>
     <row r="22">
@@ -971,23 +971,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>14-02-2024 00:00:00</t>
+          <t>12-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1936190</v>
+        <v>3062266</v>
       </c>
       <c r="D22" t="n">
-        <v>593.75</v>
+        <v>551.9</v>
       </c>
       <c r="E22" t="n">
-        <v>590.05</v>
+        <v>562</v>
       </c>
       <c r="F22" t="n">
-        <v>594.65</v>
+        <v>562.8</v>
       </c>
       <c r="G22" t="n">
-        <v>589.65</v>
+        <v>551.7</v>
       </c>
     </row>
     <row r="23">
@@ -996,23 +996,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15-02-2024 00:00:00</t>
+          <t>13-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2645626</v>
+        <v>1808550</v>
       </c>
       <c r="D23" t="n">
-        <v>590</v>
+        <v>563.4</v>
       </c>
       <c r="E23" t="n">
-        <v>589.15</v>
+        <v>555.15</v>
       </c>
       <c r="F23" t="n">
-        <v>591.6</v>
+        <v>563.45</v>
       </c>
       <c r="G23" t="n">
-        <v>587.55</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24">
@@ -1021,23 +1021,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16-02-2024 00:00:00</t>
+          <t>14-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4191003</v>
+        <v>3342450</v>
       </c>
       <c r="D24" t="n">
-        <v>590.05</v>
+        <v>555.15</v>
       </c>
       <c r="E24" t="n">
-        <v>585.5</v>
+        <v>556.3</v>
       </c>
       <c r="F24" t="n">
-        <v>591</v>
+        <v>559</v>
       </c>
       <c r="G24" t="n">
-        <v>582.4</v>
+        <v>541.2</v>
       </c>
     </row>
     <row r="25">
@@ -1046,23 +1046,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>19-02-2024 00:00:00</t>
+          <t>15-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2552097</v>
+        <v>3234739</v>
       </c>
       <c r="D25" t="n">
-        <v>585.6</v>
+        <v>556.55</v>
       </c>
       <c r="E25" t="n">
-        <v>586.25</v>
+        <v>562.8</v>
       </c>
       <c r="F25" t="n">
-        <v>589.5</v>
+        <v>563</v>
       </c>
       <c r="G25" t="n">
-        <v>581.55</v>
+        <v>551.7</v>
       </c>
     </row>
     <row r="26">
@@ -1071,23 +1071,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>20-02-2024 00:00:00</t>
+          <t>18-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5164767</v>
+        <v>2851153</v>
       </c>
       <c r="D26" t="n">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="E26" t="n">
-        <v>572.1</v>
+        <v>557.1</v>
       </c>
       <c r="F26" t="n">
-        <v>586.05</v>
+        <v>570.9</v>
       </c>
       <c r="G26" t="n">
-        <v>570.2</v>
+        <v>556.1</v>
       </c>
     </row>
     <row r="27">
@@ -1096,23 +1096,23 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21-02-2024 00:00:00</t>
+          <t>19-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6696796</v>
+        <v>3686091</v>
       </c>
       <c r="D27" t="n">
-        <v>572.1</v>
+        <v>558.6</v>
       </c>
       <c r="E27" t="n">
-        <v>562.35</v>
+        <v>544</v>
       </c>
       <c r="F27" t="n">
-        <v>576.75</v>
+        <v>559.95</v>
       </c>
       <c r="G27" t="n">
-        <v>560.25</v>
+        <v>542.95</v>
       </c>
     </row>
     <row r="28">
@@ -1121,23 +1121,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22-02-2024 00:00:00</t>
+          <t>20-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2744549</v>
+        <v>9824200</v>
       </c>
       <c r="D28" t="n">
-        <v>564.45</v>
+        <v>544</v>
       </c>
       <c r="E28" t="n">
-        <v>562.35</v>
+        <v>529.35</v>
       </c>
       <c r="F28" t="n">
-        <v>565.75</v>
+        <v>549.7</v>
       </c>
       <c r="G28" t="n">
-        <v>558.5</v>
+        <v>527.35</v>
       </c>
     </row>
     <row r="29">
@@ -1146,23 +1146,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26-02-2024 00:00:00</t>
+          <t>21-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3628956</v>
+        <v>15090715</v>
       </c>
       <c r="D29" t="n">
-        <v>566.65</v>
+        <v>528</v>
       </c>
       <c r="E29" t="n">
-        <v>575.55</v>
+        <v>508</v>
       </c>
       <c r="F29" t="n">
-        <v>577.3</v>
+        <v>528</v>
       </c>
       <c r="G29" t="n">
-        <v>566.65</v>
+        <v>504.2</v>
       </c>
     </row>
     <row r="30">
@@ -1171,23 +1171,23 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>27-02-2024 00:00:00</t>
+          <t>22-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3489647</v>
+        <v>11597068</v>
       </c>
       <c r="D30" t="n">
-        <v>575.5</v>
+        <v>510</v>
       </c>
       <c r="E30" t="n">
-        <v>568.2</v>
+        <v>513.9</v>
       </c>
       <c r="F30" t="n">
-        <v>575.55</v>
+        <v>515.8</v>
       </c>
       <c r="G30" t="n">
-        <v>566.05</v>
+        <v>497.75</v>
       </c>
     </row>
     <row r="31">
@@ -1196,23 +1196,23 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28-02-2024 00:00:00</t>
+          <t>25-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2564098</v>
+        <v>5799688</v>
       </c>
       <c r="D31" t="n">
-        <v>566.95</v>
+        <v>513.9</v>
       </c>
       <c r="E31" t="n">
-        <v>568.5</v>
+        <v>520.65</v>
       </c>
       <c r="F31" t="n">
-        <v>570.35</v>
+        <v>523</v>
       </c>
       <c r="G31" t="n">
-        <v>565.25</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32">
@@ -1221,23 +1221,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29-02-2024 00:00:00</t>
+          <t>26-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3610085</v>
+        <v>4187848</v>
       </c>
       <c r="D32" t="n">
-        <v>568.5</v>
+        <v>518.95</v>
       </c>
       <c r="E32" t="n">
-        <v>578</v>
+        <v>517.85</v>
       </c>
       <c r="F32" t="n">
-        <v>580.5</v>
+        <v>519.9</v>
       </c>
       <c r="G32" t="n">
-        <v>567</v>
+        <v>508.15</v>
       </c>
     </row>
     <row r="33">
@@ -1246,23 +1246,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01-03-2024 00:00:00</t>
+          <t>27-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2353852</v>
+        <v>5004800</v>
       </c>
       <c r="D33" t="n">
-        <v>578.05</v>
+        <v>520.3</v>
       </c>
       <c r="E33" t="n">
-        <v>577.45</v>
+        <v>529.95</v>
       </c>
       <c r="F33" t="n">
-        <v>581.6</v>
+        <v>531.25</v>
       </c>
       <c r="G33" t="n">
-        <v>573.25</v>
+        <v>519.4</v>
       </c>
     </row>
     <row r="34">
@@ -1271,23 +1271,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>04-03-2024 00:00:00</t>
+          <t>28-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2060097</v>
+        <v>3956580</v>
       </c>
       <c r="D34" t="n">
-        <v>578.9</v>
+        <v>531.4</v>
       </c>
       <c r="E34" t="n">
-        <v>582.5</v>
+        <v>535.7</v>
       </c>
       <c r="F34" t="n">
-        <v>583.6</v>
+        <v>537</v>
       </c>
       <c r="G34" t="n">
-        <v>578.55</v>
+        <v>530.5</v>
       </c>
     </row>
     <row r="35">
@@ -1296,23 +1296,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05-03-2024 00:00:00</t>
+          <t>29-09-2023 00:00:00</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2703486</v>
+        <v>3187176</v>
       </c>
       <c r="D35" t="n">
-        <v>582.6</v>
+        <v>536</v>
       </c>
       <c r="E35" t="n">
-        <v>585.55</v>
+        <v>537</v>
       </c>
       <c r="F35" t="n">
-        <v>588.8</v>
+        <v>539.4</v>
       </c>
       <c r="G35" t="n">
-        <v>579.5</v>
+        <v>532.3</v>
       </c>
     </row>
     <row r="36">
@@ -1321,23 +1321,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>06-03-2024 00:00:00</t>
+          <t>02-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1874494</v>
+        <v>4053827</v>
       </c>
       <c r="D36" t="n">
-        <v>585.7</v>
+        <v>538.5</v>
       </c>
       <c r="E36" t="n">
-        <v>585.15</v>
+        <v>535.55</v>
       </c>
       <c r="F36" t="n">
-        <v>589.95</v>
+        <v>544.35</v>
       </c>
       <c r="G36" t="n">
-        <v>584.5</v>
+        <v>534.55</v>
       </c>
     </row>
     <row r="37">
@@ -1346,23 +1346,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>07-03-2024 00:00:00</t>
+          <t>03-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1431702</v>
+        <v>3202842</v>
       </c>
       <c r="D37" t="n">
-        <v>585</v>
+        <v>534.65</v>
       </c>
       <c r="E37" t="n">
-        <v>589.45</v>
+        <v>538.9</v>
       </c>
       <c r="F37" t="n">
-        <v>589.8</v>
+        <v>540.65</v>
       </c>
       <c r="G37" t="n">
-        <v>583.1</v>
+        <v>526.9</v>
       </c>
     </row>
     <row r="38">
@@ -1371,23 +1371,23 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11-03-2024 00:00:00</t>
+          <t>04-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1925221</v>
+        <v>3438309</v>
       </c>
       <c r="D38" t="n">
-        <v>589.6</v>
+        <v>538.2</v>
       </c>
       <c r="E38" t="n">
-        <v>588.35</v>
+        <v>533.95</v>
       </c>
       <c r="F38" t="n">
-        <v>592.5</v>
+        <v>543.25</v>
       </c>
       <c r="G38" t="n">
-        <v>587.05</v>
+        <v>533.6</v>
       </c>
     </row>
     <row r="39">
@@ -1396,23 +1396,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>12-03-2024 00:00:00</t>
+          <t>05-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1811625</v>
+        <v>2498335</v>
       </c>
       <c r="D39" t="n">
-        <v>588.6</v>
+        <v>536</v>
       </c>
       <c r="E39" t="n">
-        <v>588.25</v>
+        <v>534.7</v>
       </c>
       <c r="F39" t="n">
-        <v>589</v>
+        <v>539.6</v>
       </c>
       <c r="G39" t="n">
-        <v>585.05</v>
+        <v>530.3</v>
       </c>
     </row>
     <row r="40">
@@ -1421,23 +1421,23 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13-03-2024 00:00:00</t>
+          <t>06-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2723687</v>
+        <v>2961059</v>
       </c>
       <c r="D40" t="n">
-        <v>586.1</v>
+        <v>534.5</v>
       </c>
       <c r="E40" t="n">
-        <v>581.45</v>
+        <v>534.2</v>
       </c>
       <c r="F40" t="n">
-        <v>588.35</v>
+        <v>537.65</v>
       </c>
       <c r="G40" t="n">
-        <v>580.7</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41">
@@ -1446,23 +1446,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>14-03-2024 00:00:00</t>
+          <t>09-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2576036</v>
+        <v>6967992</v>
       </c>
       <c r="D41" t="n">
-        <v>581</v>
+        <v>541.1</v>
       </c>
       <c r="E41" t="n">
-        <v>584</v>
+        <v>552.5</v>
       </c>
       <c r="F41" t="n">
-        <v>586</v>
+        <v>553.2</v>
       </c>
       <c r="G41" t="n">
-        <v>577.8</v>
+        <v>538.6</v>
       </c>
     </row>
     <row r="42">
@@ -1471,23 +1471,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>15-03-2024 00:00:00</t>
+          <t>10-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1768650</v>
+        <v>2946699</v>
       </c>
       <c r="D42" t="n">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="E42" t="n">
-        <v>584.2</v>
+        <v>549</v>
       </c>
       <c r="F42" t="n">
-        <v>587.15</v>
+        <v>554.5</v>
       </c>
       <c r="G42" t="n">
-        <v>579.6</v>
+        <v>547.05</v>
       </c>
     </row>
     <row r="43">
@@ -1496,23 +1496,23 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18-03-2024 00:00:00</t>
+          <t>11-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1287820</v>
+        <v>6376794</v>
       </c>
       <c r="D43" t="n">
-        <v>584</v>
+        <v>549.5</v>
       </c>
       <c r="E43" t="n">
-        <v>583.1</v>
+        <v>540.35</v>
       </c>
       <c r="F43" t="n">
-        <v>586.45</v>
+        <v>559.65</v>
       </c>
       <c r="G43" t="n">
-        <v>581.55</v>
+        <v>537.3</v>
       </c>
     </row>
     <row r="44">
@@ -1521,23 +1521,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>19-03-2024 00:00:00</t>
+          <t>12-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>15172575</v>
+        <v>4066793</v>
       </c>
       <c r="D44" t="n">
-        <v>582.85</v>
+        <v>538.4</v>
       </c>
       <c r="E44" t="n">
-        <v>565.35</v>
+        <v>546.05</v>
       </c>
       <c r="F44" t="n">
-        <v>583.7</v>
+        <v>548.7</v>
       </c>
       <c r="G44" t="n">
-        <v>556.3</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45">
@@ -1546,23 +1546,23 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20-03-2024 00:00:00</t>
+          <t>13-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>15832545</v>
+        <v>4973328</v>
       </c>
       <c r="D45" t="n">
-        <v>565.35</v>
+        <v>546.65</v>
       </c>
       <c r="E45" t="n">
-        <v>560.3</v>
+        <v>561.85</v>
       </c>
       <c r="F45" t="n">
-        <v>566.55</v>
+        <v>562</v>
       </c>
       <c r="G45" t="n">
-        <v>551.2</v>
+        <v>545.4</v>
       </c>
     </row>
     <row r="46">
@@ -1571,23 +1571,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>21-03-2024 00:00:00</t>
+          <t>16-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>13589092</v>
+        <v>5076954</v>
       </c>
       <c r="D46" t="n">
-        <v>561.3</v>
+        <v>564</v>
       </c>
       <c r="E46" t="n">
-        <v>562.8</v>
+        <v>568.65</v>
       </c>
       <c r="F46" t="n">
-        <v>575</v>
+        <v>569.95</v>
       </c>
       <c r="G46" t="n">
-        <v>557.25</v>
+        <v>561.05</v>
       </c>
     </row>
     <row r="47">
@@ -1596,23 +1596,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>22-03-2024 00:00:00</t>
+          <t>17-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10052432</v>
+        <v>4295747</v>
       </c>
       <c r="D47" t="n">
-        <v>562.85</v>
+        <v>568.85</v>
       </c>
       <c r="E47" t="n">
-        <v>554.2</v>
+        <v>573.05</v>
       </c>
       <c r="F47" t="n">
-        <v>563.95</v>
+        <v>574.5</v>
       </c>
       <c r="G47" t="n">
-        <v>551</v>
+        <v>563.15</v>
       </c>
     </row>
     <row r="48">
@@ -1621,23 +1621,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25-03-2024 00:00:00</t>
+          <t>18-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8585063</v>
+        <v>9706146</v>
       </c>
       <c r="D48" t="n">
-        <v>556.7</v>
+        <v>574.95</v>
       </c>
       <c r="E48" t="n">
-        <v>558.05</v>
+        <v>586.8</v>
       </c>
       <c r="F48" t="n">
-        <v>559.85</v>
+        <v>589.9</v>
       </c>
       <c r="G48" t="n">
-        <v>548.5</v>
+        <v>573.55</v>
       </c>
     </row>
     <row r="49">
@@ -1646,23 +1646,23 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>26-03-2024 00:00:00</t>
+          <t>19-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4720207</v>
+        <v>5963953</v>
       </c>
       <c r="D49" t="n">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="E49" t="n">
-        <v>556.1</v>
+        <v>595.25</v>
       </c>
       <c r="F49" t="n">
-        <v>559</v>
+        <v>596.25</v>
       </c>
       <c r="G49" t="n">
-        <v>554.15</v>
+        <v>580.55</v>
       </c>
     </row>
     <row r="50">
@@ -1671,23 +1671,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>27-03-2024 00:00:00</t>
+          <t>20-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3623708</v>
+        <v>7898736</v>
       </c>
       <c r="D50" t="n">
-        <v>556.1</v>
+        <v>596</v>
       </c>
       <c r="E50" t="n">
-        <v>555.4</v>
+        <v>602.9</v>
       </c>
       <c r="F50" t="n">
-        <v>557.5</v>
+        <v>605.25</v>
       </c>
       <c r="G50" t="n">
-        <v>551.25</v>
+        <v>586.7</v>
       </c>
     </row>
     <row r="51">
@@ -1696,23 +1696,23 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28-03-2024 00:00:00</t>
+          <t>23-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8154514</v>
+        <v>6000105</v>
       </c>
       <c r="D51" t="n">
-        <v>557</v>
+        <v>600.1</v>
       </c>
       <c r="E51" t="n">
-        <v>565.75</v>
+        <v>593.3</v>
       </c>
       <c r="F51" t="n">
-        <v>565.8</v>
+        <v>607.8</v>
       </c>
       <c r="G51" t="n">
-        <v>555.75</v>
+        <v>590.35</v>
       </c>
     </row>
     <row r="52">
@@ -1721,23 +1721,23 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29-03-2024 00:00:00</t>
+          <t>24-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5575648</v>
+        <v>3869764</v>
       </c>
       <c r="D52" t="n">
-        <v>567.6</v>
+        <v>593</v>
       </c>
       <c r="E52" t="n">
-        <v>565.75</v>
+        <v>586.2</v>
       </c>
       <c r="F52" t="n">
-        <v>569.4</v>
+        <v>593.2</v>
       </c>
       <c r="G52" t="n">
-        <v>563.5</v>
+        <v>584.5</v>
       </c>
     </row>
     <row r="53">
@@ -1746,23 +1746,23 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01-04-2024 00:00:00</t>
+          <t>25-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8194319</v>
+        <v>4242769</v>
       </c>
       <c r="D53" t="n">
-        <v>568</v>
+        <v>585</v>
       </c>
       <c r="E53" t="n">
-        <v>568.85</v>
+        <v>590.5</v>
       </c>
       <c r="F53" t="n">
-        <v>573.55</v>
+        <v>593.4</v>
       </c>
       <c r="G53" t="n">
-        <v>566.8</v>
+        <v>580.7</v>
       </c>
     </row>
     <row r="54">
@@ -1771,23 +1771,23 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>02-04-2024 00:00:00</t>
+          <t>26-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4834554</v>
+        <v>3477671</v>
       </c>
       <c r="D54" t="n">
-        <v>570</v>
+        <v>590.5</v>
       </c>
       <c r="E54" t="n">
-        <v>572.9</v>
+        <v>583</v>
       </c>
       <c r="F54" t="n">
-        <v>574.5</v>
+        <v>594.5</v>
       </c>
       <c r="G54" t="n">
-        <v>567.5</v>
+        <v>582.65</v>
       </c>
     </row>
     <row r="55">
@@ -1796,23 +1796,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03-04-2024 00:00:00</t>
+          <t>27-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4829568</v>
+        <v>6836907</v>
       </c>
       <c r="D55" t="n">
-        <v>573.1</v>
+        <v>584.5</v>
       </c>
       <c r="E55" t="n">
-        <v>576.9</v>
+        <v>594.6</v>
       </c>
       <c r="F55" t="n">
-        <v>579</v>
+        <v>597.95</v>
       </c>
       <c r="G55" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56">
@@ -1821,23 +1821,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>04-04-2024 00:00:00</t>
+          <t>30-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3924251</v>
+        <v>2826267</v>
       </c>
       <c r="D56" t="n">
-        <v>577.75</v>
+        <v>593.25</v>
       </c>
       <c r="E56" t="n">
-        <v>578.05</v>
+        <v>587.2</v>
       </c>
       <c r="F56" t="n">
-        <v>580</v>
+        <v>593.25</v>
       </c>
       <c r="G56" t="n">
-        <v>575.65</v>
+        <v>586.15</v>
       </c>
     </row>
     <row r="57">
@@ -1846,23 +1846,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>05-04-2024 00:00:00</t>
+          <t>31-10-2023 00:00:00</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3300134</v>
+        <v>4771075</v>
       </c>
       <c r="D57" t="n">
-        <v>578.85</v>
+        <v>586</v>
       </c>
       <c r="E57" t="n">
-        <v>576.1</v>
+        <v>574.55</v>
       </c>
       <c r="F57" t="n">
-        <v>579.65</v>
+        <v>588.4</v>
       </c>
       <c r="G57" t="n">
-        <v>574</v>
+        <v>571.4</v>
       </c>
     </row>
     <row r="58">
@@ -1871,23 +1871,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>08-04-2024 00:00:00</t>
+          <t>01-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3298221</v>
+        <v>4126340</v>
       </c>
       <c r="D58" t="n">
-        <v>576.3</v>
+        <v>574</v>
       </c>
       <c r="E58" t="n">
-        <v>574.5</v>
+        <v>579.5</v>
       </c>
       <c r="F58" t="n">
-        <v>579.75</v>
+        <v>586.3</v>
       </c>
       <c r="G58" t="n">
-        <v>571.55</v>
+        <v>573.7</v>
       </c>
     </row>
     <row r="59">
@@ -1896,23 +1896,23 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>09-04-2024 00:00:00</t>
+          <t>02-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4663495</v>
+        <v>3432312</v>
       </c>
       <c r="D59" t="n">
-        <v>574.5</v>
+        <v>581.3</v>
       </c>
       <c r="E59" t="n">
-        <v>568.4</v>
+        <v>586.25</v>
       </c>
       <c r="F59" t="n">
-        <v>576.2</v>
+        <v>589.75</v>
       </c>
       <c r="G59" t="n">
-        <v>565.75</v>
+        <v>580.75</v>
       </c>
     </row>
     <row r="60">
@@ -1921,23 +1921,23 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>10-04-2024 00:00:00</t>
+          <t>03-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2487296</v>
+        <v>3693322</v>
       </c>
       <c r="D60" t="n">
-        <v>568.5</v>
+        <v>588.4</v>
       </c>
       <c r="E60" t="n">
-        <v>573.2</v>
+        <v>581.5</v>
       </c>
       <c r="F60" t="n">
-        <v>574.5</v>
+        <v>590</v>
       </c>
       <c r="G60" t="n">
-        <v>565.6</v>
+        <v>577.8</v>
       </c>
     </row>
     <row r="61">
@@ -1946,23 +1946,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11-04-2024 00:00:00</t>
+          <t>06-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3772650</v>
+        <v>1893451</v>
       </c>
       <c r="D61" t="n">
-        <v>573.2</v>
+        <v>582.5</v>
       </c>
       <c r="E61" t="n">
-        <v>575.25</v>
+        <v>588.95</v>
       </c>
       <c r="F61" t="n">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="G61" t="n">
-        <v>573.2</v>
+        <v>580.6</v>
       </c>
     </row>
     <row r="62">
@@ -1971,23 +1971,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12-04-2024 00:00:00</t>
+          <t>07-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3152068</v>
+        <v>2211960</v>
       </c>
       <c r="D62" t="n">
-        <v>576</v>
+        <v>588.6</v>
       </c>
       <c r="E62" t="n">
-        <v>576.15</v>
+        <v>583.95</v>
       </c>
       <c r="F62" t="n">
-        <v>579.5</v>
+        <v>589</v>
       </c>
       <c r="G62" t="n">
-        <v>575.9</v>
+        <v>583.6</v>
       </c>
     </row>
     <row r="63">
@@ -1996,23 +1996,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15-04-2024 00:00:00</t>
+          <t>08-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7079255</v>
+        <v>2315948</v>
       </c>
       <c r="D63" t="n">
-        <v>578.95</v>
+        <v>583.95</v>
       </c>
       <c r="E63" t="n">
-        <v>589.75</v>
+        <v>581.65</v>
       </c>
       <c r="F63" t="n">
-        <v>589.85</v>
+        <v>587.85</v>
       </c>
       <c r="G63" t="n">
-        <v>578.1</v>
+        <v>581.05</v>
       </c>
     </row>
     <row r="64">
@@ -2021,23 +2021,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16-04-2024 00:00:00</t>
+          <t>09-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5290388</v>
+        <v>3373607</v>
       </c>
       <c r="D64" t="n">
-        <v>590</v>
+        <v>581.4</v>
       </c>
       <c r="E64" t="n">
-        <v>589.1</v>
+        <v>583.1</v>
       </c>
       <c r="F64" t="n">
-        <v>592.5</v>
+        <v>587.55</v>
       </c>
       <c r="G64" t="n">
-        <v>585.7</v>
+        <v>576</v>
       </c>
     </row>
     <row r="65">
@@ -2046,23 +2046,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>17-04-2024 00:00:00</t>
+          <t>10-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3814643</v>
+        <v>9601177</v>
       </c>
       <c r="D65" t="n">
-        <v>589.15</v>
+        <v>583.4</v>
       </c>
       <c r="E65" t="n">
-        <v>584.35</v>
+        <v>598.3</v>
       </c>
       <c r="F65" t="n">
-        <v>590.75</v>
+        <v>601.45</v>
       </c>
       <c r="G65" t="n">
-        <v>581.3</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66">
@@ -2071,23 +2071,23 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>18-04-2024 00:00:00</t>
+          <t>13-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3808318</v>
+        <v>4317581</v>
       </c>
       <c r="D66" t="n">
-        <v>583.85</v>
+        <v>600</v>
       </c>
       <c r="E66" t="n">
-        <v>579.15</v>
+        <v>598.3</v>
       </c>
       <c r="F66" t="n">
-        <v>585.85</v>
+        <v>601.85</v>
       </c>
       <c r="G66" t="n">
-        <v>576.55</v>
+        <v>593.75</v>
       </c>
     </row>
     <row r="67">
@@ -2096,23 +2096,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>19-04-2024 00:00:00</t>
+          <t>14-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3507875</v>
+        <v>4653735</v>
       </c>
       <c r="D67" t="n">
-        <v>582</v>
+        <v>597.8</v>
       </c>
       <c r="E67" t="n">
-        <v>585.35</v>
+        <v>591.3</v>
       </c>
       <c r="F67" t="n">
-        <v>588.4</v>
+        <v>598.95</v>
       </c>
       <c r="G67" t="n">
-        <v>578.05</v>
+        <v>581.35</v>
       </c>
     </row>
     <row r="68">
@@ -2121,23 +2121,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22-04-2024 00:00:00</t>
+          <t>15-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3190989</v>
+        <v>5268513</v>
       </c>
       <c r="D68" t="n">
-        <v>586.7</v>
+        <v>589.9</v>
       </c>
       <c r="E68" t="n">
-        <v>583.15</v>
+        <v>585</v>
       </c>
       <c r="F68" t="n">
-        <v>589.4</v>
+        <v>590.7</v>
       </c>
       <c r="G68" t="n">
-        <v>581</v>
+        <v>580.1</v>
       </c>
     </row>
     <row r="69">
@@ -2146,23 +2146,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23-04-2024 00:00:00</t>
+          <t>16-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3699539</v>
+        <v>3579808</v>
       </c>
       <c r="D69" t="n">
-        <v>583.85</v>
+        <v>583.5</v>
       </c>
       <c r="E69" t="n">
-        <v>580.85</v>
+        <v>572.75</v>
       </c>
       <c r="F69" t="n">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G69" t="n">
-        <v>580.25</v>
+        <v>570.35</v>
       </c>
     </row>
     <row r="70">
@@ -2171,23 +2171,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>24-04-2024 00:00:00</t>
+          <t>17-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2968087</v>
+        <v>4832114</v>
       </c>
       <c r="D70" t="n">
-        <v>582.35</v>
+        <v>572.55</v>
       </c>
       <c r="E70" t="n">
-        <v>576.3</v>
+        <v>583.3</v>
       </c>
       <c r="F70" t="n">
         <v>583.4</v>
       </c>
       <c r="G70" t="n">
-        <v>572</v>
+        <v>568.55</v>
       </c>
     </row>
     <row r="71">
@@ -2196,23 +2196,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25-04-2024 00:00:00</t>
+          <t>20-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2269626</v>
+        <v>2183257</v>
       </c>
       <c r="D71" t="n">
-        <v>577</v>
+        <v>584.5</v>
       </c>
       <c r="E71" t="n">
-        <v>579.8</v>
+        <v>581.5</v>
       </c>
       <c r="F71" t="n">
-        <v>581.25</v>
+        <v>586.15</v>
       </c>
       <c r="G71" t="n">
-        <v>573</v>
+        <v>579.85</v>
       </c>
     </row>
     <row r="72">
@@ -2221,23 +2221,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>26-04-2024 00:00:00</t>
+          <t>21-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2194810</v>
+        <v>2115754</v>
       </c>
       <c r="D72" t="n">
-        <v>579.95</v>
+        <v>581</v>
       </c>
       <c r="E72" t="n">
-        <v>581.3</v>
+        <v>583.4</v>
       </c>
       <c r="F72" t="n">
-        <v>584.9</v>
+        <v>584.6</v>
       </c>
       <c r="G72" t="n">
-        <v>578.6</v>
+        <v>576.4</v>
       </c>
     </row>
     <row r="73">
@@ -2246,23 +2246,23 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>27-04-2024 00:00:00</t>
+          <t>22-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1379864</v>
+        <v>2722059</v>
       </c>
       <c r="D73" t="n">
-        <v>581</v>
+        <v>582.75</v>
       </c>
       <c r="E73" t="n">
-        <v>581.2</v>
+        <v>581.75</v>
       </c>
       <c r="F73" t="n">
-        <v>584.5</v>
+        <v>586.6</v>
       </c>
       <c r="G73" t="n">
-        <v>581</v>
+        <v>580.05</v>
       </c>
     </row>
     <row r="74">
@@ -2271,23 +2271,23 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29-04-2024 00:00:00</t>
+          <t>23-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>882950</v>
+        <v>1298090</v>
       </c>
       <c r="D74" t="n">
-        <v>581.8</v>
+        <v>581.6</v>
       </c>
       <c r="E74" t="n">
-        <v>583.15</v>
+        <v>580.8</v>
       </c>
       <c r="F74" t="n">
-        <v>583.95</v>
+        <v>582.7</v>
       </c>
       <c r="G74" t="n">
-        <v>581.35</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75">
@@ -2296,23 +2296,23 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>30-04-2024 00:00:00</t>
+          <t>24-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>632716</v>
+        <v>3449893</v>
       </c>
       <c r="D75" t="n">
-        <v>583.15</v>
+        <v>581.2</v>
       </c>
       <c r="E75" t="n">
-        <v>582</v>
+        <v>578.85</v>
       </c>
       <c r="F75" t="n">
-        <v>583.65</v>
+        <v>584.5</v>
       </c>
       <c r="G75" t="n">
-        <v>581.3</v>
+        <v>571.5</v>
       </c>
     </row>
     <row r="76">
@@ -2321,23 +2321,23 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>02-05-2024 00:00:00</t>
+          <t>27-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2169820</v>
+        <v>2731793</v>
       </c>
       <c r="D76" t="n">
-        <v>581.4</v>
+        <v>578.2</v>
       </c>
       <c r="E76" t="n">
-        <v>582.3</v>
+        <v>578</v>
       </c>
       <c r="F76" t="n">
-        <v>587</v>
+        <v>583.85</v>
       </c>
       <c r="G76" t="n">
-        <v>578</v>
+        <v>574.5</v>
       </c>
     </row>
     <row r="77">
@@ -2346,23 +2346,23 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>03-05-2024 00:00:00</t>
+          <t>28-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2302837</v>
+        <v>3429134</v>
       </c>
       <c r="D77" t="n">
-        <v>582.75</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>582.3</v>
+        <v>589.9</v>
       </c>
       <c r="F77" t="n">
-        <v>586.4</v>
+        <v>589.9</v>
       </c>
       <c r="G77" t="n">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78">
@@ -2371,23 +2371,23 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>06-05-2024 00:00:00</t>
+          <t>29-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2443510</v>
+        <v>3570342</v>
       </c>
       <c r="D78" t="n">
-        <v>582</v>
+        <v>589.9</v>
       </c>
       <c r="E78" t="n">
-        <v>579.05</v>
+        <v>593.45</v>
       </c>
       <c r="F78" t="n">
-        <v>586.15</v>
+        <v>594</v>
       </c>
       <c r="G78" t="n">
-        <v>578.65</v>
+        <v>583.45</v>
       </c>
     </row>
     <row r="79">
@@ -2396,23 +2396,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>07-05-2024 00:00:00</t>
+          <t>30-11-2023 00:00:00</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1688537</v>
+        <v>5645836</v>
       </c>
       <c r="D79" t="n">
-        <v>579.15</v>
+        <v>598</v>
       </c>
       <c r="E79" t="n">
-        <v>579.95</v>
+        <v>584.3</v>
       </c>
       <c r="F79" t="n">
-        <v>584.35</v>
+        <v>598</v>
       </c>
       <c r="G79" t="n">
-        <v>579.15</v>
+        <v>582.05</v>
       </c>
     </row>
     <row r="80">
@@ -2421,23 +2421,23 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>08-05-2024 00:00:00</t>
+          <t>01-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1292162</v>
+        <v>2625750</v>
       </c>
       <c r="D80" t="n">
-        <v>580.3</v>
+        <v>583.5</v>
       </c>
       <c r="E80" t="n">
-        <v>578.5</v>
+        <v>575.15</v>
       </c>
       <c r="F80" t="n">
-        <v>582</v>
+        <v>584.05</v>
       </c>
       <c r="G80" t="n">
-        <v>578.2</v>
+        <v>574.05</v>
       </c>
     </row>
     <row r="81">
@@ -2446,23 +2446,23 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10-05-2024 00:00:00</t>
+          <t>04-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1159220</v>
+        <v>3385782</v>
       </c>
       <c r="D81" t="n">
-        <v>579</v>
+        <v>573.85</v>
       </c>
       <c r="E81" t="n">
-        <v>579.4</v>
+        <v>565</v>
       </c>
       <c r="F81" t="n">
-        <v>582.5</v>
+        <v>574.9</v>
       </c>
       <c r="G81" t="n">
-        <v>578.55</v>
+        <v>562.15</v>
       </c>
     </row>
     <row r="82">
@@ -2471,23 +2471,23 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>13-05-2024 00:00:00</t>
+          <t>05-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4761120</v>
+        <v>2249090</v>
       </c>
       <c r="D82" t="n">
-        <v>580.25</v>
+        <v>567.1</v>
       </c>
       <c r="E82" t="n">
-        <v>589.45</v>
+        <v>574.35</v>
       </c>
       <c r="F82" t="n">
-        <v>590</v>
+        <v>576.75</v>
       </c>
       <c r="G82" t="n">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83">
@@ -2496,23 +2496,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>14-05-2024 00:00:00</t>
+          <t>06-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4215772</v>
+        <v>2262240</v>
       </c>
       <c r="D83" t="n">
-        <v>590</v>
+        <v>574.8</v>
       </c>
       <c r="E83" t="n">
-        <v>589.8</v>
+        <v>565.55</v>
       </c>
       <c r="F83" t="n">
-        <v>594</v>
+        <v>575.8</v>
       </c>
       <c r="G83" t="n">
-        <v>588.3</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84">
@@ -2521,23 +2521,23 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>15-05-2024 00:00:00</t>
+          <t>07-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7144102</v>
+        <v>4015534</v>
       </c>
       <c r="D84" t="n">
-        <v>590.75</v>
+        <v>564.5</v>
       </c>
       <c r="E84" t="n">
-        <v>599.2</v>
+        <v>560.6</v>
       </c>
       <c r="F84" t="n">
-        <v>599.3</v>
+        <v>570.65</v>
       </c>
       <c r="G84" t="n">
-        <v>589.3</v>
+        <v>558.5</v>
       </c>
     </row>
     <row r="85">
@@ -2546,23 +2546,23 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16-05-2024 00:00:00</t>
+          <t>08-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4645547</v>
+        <v>1606316</v>
       </c>
       <c r="D85" t="n">
-        <v>599.5</v>
+        <v>563</v>
       </c>
       <c r="E85" t="n">
-        <v>592.6</v>
+        <v>564.7</v>
       </c>
       <c r="F85" t="n">
-        <v>600</v>
+        <v>567.15</v>
       </c>
       <c r="G85" t="n">
-        <v>590.05</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86">
@@ -2571,23 +2571,23 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>17-05-2024 00:00:00</t>
+          <t>11-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3460602</v>
+        <v>2440767</v>
       </c>
       <c r="D86" t="n">
-        <v>592.8</v>
+        <v>564.7</v>
       </c>
       <c r="E86" t="n">
-        <v>591.95</v>
+        <v>555</v>
       </c>
       <c r="F86" t="n">
-        <v>596.7</v>
+        <v>568</v>
       </c>
       <c r="G86" t="n">
-        <v>590.5</v>
+        <v>553.55</v>
       </c>
     </row>
     <row r="87">
@@ -2596,23 +2596,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20-05-2024 00:00:00</t>
+          <t>12-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4649647</v>
+        <v>2542798</v>
       </c>
       <c r="D87" t="n">
-        <v>594</v>
+        <v>554.55</v>
       </c>
       <c r="E87" t="n">
-        <v>591.9</v>
+        <v>549.55</v>
       </c>
       <c r="F87" t="n">
-        <v>596.35</v>
+        <v>557.4</v>
       </c>
       <c r="G87" t="n">
-        <v>580.1</v>
+        <v>545.05</v>
       </c>
     </row>
     <row r="88">
@@ -2621,23 +2621,23 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21-05-2024 00:00:00</t>
+          <t>13-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4313358</v>
+        <v>1743135</v>
       </c>
       <c r="D88" t="n">
-        <v>592</v>
+        <v>546</v>
       </c>
       <c r="E88" t="n">
-        <v>594.6</v>
+        <v>555.85</v>
       </c>
       <c r="F88" t="n">
-        <v>597.5</v>
+        <v>556.55</v>
       </c>
       <c r="G88" t="n">
-        <v>586.6</v>
+        <v>544.3</v>
       </c>
     </row>
     <row r="89">
@@ -2646,23 +2646,23 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>22-05-2024 00:00:00</t>
+          <t>14-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3748577</v>
+        <v>3418325</v>
       </c>
       <c r="D89" t="n">
-        <v>593.9</v>
+        <v>557.4</v>
       </c>
       <c r="E89" t="n">
-        <v>596.85</v>
+        <v>535.7</v>
       </c>
       <c r="F89" t="n">
-        <v>597.25</v>
+        <v>558.6</v>
       </c>
       <c r="G89" t="n">
-        <v>591.75</v>
+        <v>535.65</v>
       </c>
     </row>
     <row r="90">
@@ -2671,23 +2671,23 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>23-05-2024 00:00:00</t>
+          <t>15-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3555763</v>
+        <v>3949304</v>
       </c>
       <c r="D90" t="n">
-        <v>595.7</v>
+        <v>535.5</v>
       </c>
       <c r="E90" t="n">
-        <v>593.15</v>
+        <v>561.5</v>
       </c>
       <c r="F90" t="n">
-        <v>596.65</v>
+        <v>563</v>
       </c>
       <c r="G90" t="n">
-        <v>590</v>
+        <v>535.5</v>
       </c>
     </row>
     <row r="91">
@@ -2696,23 +2696,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>24-05-2024 00:00:00</t>
+          <t>18-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3990201</v>
+        <v>3630477</v>
       </c>
       <c r="D91" t="n">
-        <v>593.6</v>
+        <v>568.3</v>
       </c>
       <c r="E91" t="n">
-        <v>585.1</v>
+        <v>566.65</v>
       </c>
       <c r="F91" t="n">
-        <v>594.45</v>
+        <v>569.5</v>
       </c>
       <c r="G91" t="n">
-        <v>582.3</v>
+        <v>563.1</v>
       </c>
     </row>
     <row r="92">
@@ -2721,23 +2721,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>27-05-2024 00:00:00</t>
+          <t>19-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7407211</v>
+        <v>3118726</v>
       </c>
       <c r="D92" t="n">
-        <v>585</v>
+        <v>566.65</v>
       </c>
       <c r="E92" t="n">
-        <v>578.25</v>
+        <v>574</v>
       </c>
       <c r="F92" t="n">
-        <v>588</v>
+        <v>574.8</v>
       </c>
       <c r="G92" t="n">
-        <v>568.4</v>
+        <v>564.25</v>
       </c>
     </row>
     <row r="93">
@@ -2746,23 +2746,23 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>28-05-2024 00:00:00</t>
+          <t>20-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4392067</v>
+        <v>3382309</v>
       </c>
       <c r="D93" t="n">
-        <v>578.8</v>
+        <v>574.25</v>
       </c>
       <c r="E93" t="n">
-        <v>573</v>
+        <v>578.6</v>
       </c>
       <c r="F93" t="n">
-        <v>585</v>
+        <v>584.9</v>
       </c>
       <c r="G93" t="n">
-        <v>567</v>
+        <v>573.2</v>
       </c>
     </row>
     <row r="94">
@@ -2771,23 +2771,23 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>29-05-2024 00:00:00</t>
+          <t>21-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2622447</v>
+        <v>2984797</v>
       </c>
       <c r="D94" t="n">
-        <v>573.95</v>
+        <v>581.2</v>
       </c>
       <c r="E94" t="n">
-        <v>575.65</v>
+        <v>577.1</v>
       </c>
       <c r="F94" t="n">
-        <v>580</v>
+        <v>581.2</v>
       </c>
       <c r="G94" t="n">
-        <v>571</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="95">
@@ -2796,23 +2796,23 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>30-05-2024 00:00:00</t>
+          <t>22-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5592247</v>
+        <v>2581816</v>
       </c>
       <c r="D95" t="n">
-        <v>577.65</v>
+        <v>580</v>
       </c>
       <c r="E95" t="n">
-        <v>566.4</v>
+        <v>583.75</v>
       </c>
       <c r="F95" t="n">
-        <v>581.15</v>
+        <v>585.45</v>
       </c>
       <c r="G95" t="n">
-        <v>553.95</v>
+        <v>578.15</v>
       </c>
     </row>
     <row r="96">
@@ -2821,23 +2821,23 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>31-05-2024 00:00:00</t>
+          <t>25-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6164219</v>
+        <v>1694085</v>
       </c>
       <c r="D96" t="n">
-        <v>570</v>
+        <v>585.85</v>
       </c>
       <c r="E96" t="n">
-        <v>556.65</v>
+        <v>584.45</v>
       </c>
       <c r="F96" t="n">
-        <v>572</v>
+        <v>588.45</v>
       </c>
       <c r="G96" t="n">
-        <v>555</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97">
@@ -2846,23 +2846,23 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>03-06-2024 00:00:00</t>
+          <t>26-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7578912</v>
+        <v>2232310</v>
       </c>
       <c r="D97" t="n">
-        <v>557</v>
+        <v>585</v>
       </c>
       <c r="E97" t="n">
-        <v>562.95</v>
+        <v>589.3</v>
       </c>
       <c r="F97" t="n">
-        <v>564.7</v>
+        <v>592</v>
       </c>
       <c r="G97" t="n">
-        <v>542.5</v>
+        <v>583</v>
       </c>
     </row>
     <row r="98">
@@ -2871,23 +2871,23 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>04-06-2024 00:00:00</t>
+          <t>27-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5282965</v>
+        <v>2902895</v>
       </c>
       <c r="D98" t="n">
-        <v>563.1</v>
+        <v>590.45</v>
       </c>
       <c r="E98" t="n">
-        <v>568.95</v>
+        <v>594.55</v>
       </c>
       <c r="F98" t="n">
-        <v>571</v>
+        <v>596.65</v>
       </c>
       <c r="G98" t="n">
-        <v>555.55</v>
+        <v>589.5</v>
       </c>
     </row>
     <row r="99">
@@ -2896,23 +2896,23 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>05-06-2024 00:00:00</t>
+          <t>28-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5054761</v>
+        <v>1830269</v>
       </c>
       <c r="D99" t="n">
-        <v>570.05</v>
+        <v>596.7</v>
       </c>
       <c r="E99" t="n">
-        <v>562.2</v>
+        <v>591.9</v>
       </c>
       <c r="F99" t="n">
-        <v>575</v>
+        <v>596.7</v>
       </c>
       <c r="G99" t="n">
-        <v>559.65</v>
+        <v>589.1</v>
       </c>
     </row>
     <row r="100">
@@ -2921,23 +2921,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>06-06-2024 00:00:00</t>
+          <t>29-12-2023 00:00:00</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2240679</v>
+        <v>1878824</v>
       </c>
       <c r="D100" t="n">
-        <v>563.9</v>
+        <v>591.6</v>
       </c>
       <c r="E100" t="n">
-        <v>566.3</v>
+        <v>593.2</v>
       </c>
       <c r="F100" t="n">
-        <v>569.8</v>
+        <v>595.25</v>
       </c>
       <c r="G100" t="n">
-        <v>561.25</v>
+        <v>586.35</v>
       </c>
     </row>
     <row r="101">
@@ -2946,23 +2946,2773 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>03-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1945771</v>
+      </c>
+      <c r="D101" t="n">
+        <v>595.6</v>
+      </c>
+      <c r="E101" t="n">
+        <v>604</v>
+      </c>
+      <c r="F101" t="n">
+        <v>604</v>
+      </c>
+      <c r="G101" t="n">
+        <v>594.75</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>04-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1193768</v>
+      </c>
+      <c r="D102" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>601.15</v>
+      </c>
+      <c r="F102" t="n">
+        <v>605.8</v>
+      </c>
+      <c r="G102" t="n">
+        <v>600.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>05-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1964815</v>
+      </c>
+      <c r="D103" t="n">
+        <v>602.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>604.05</v>
+      </c>
+      <c r="F103" t="n">
+        <v>605.55</v>
+      </c>
+      <c r="G103" t="n">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>08-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1806126</v>
+      </c>
+      <c r="D104" t="n">
+        <v>605.15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>602.3</v>
+      </c>
+      <c r="F104" t="n">
+        <v>606.95</v>
+      </c>
+      <c r="G104" t="n">
+        <v>600.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>09-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>3249471</v>
+      </c>
+      <c r="D105" t="n">
+        <v>603.15</v>
+      </c>
+      <c r="E105" t="n">
+        <v>600.55</v>
+      </c>
+      <c r="F105" t="n">
+        <v>603.75</v>
+      </c>
+      <c r="G105" t="n">
+        <v>597.85</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>10-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>5087676</v>
+      </c>
+      <c r="D106" t="n">
+        <v>598.1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>601</v>
+      </c>
+      <c r="F106" t="n">
+        <v>601.95</v>
+      </c>
+      <c r="G106" t="n">
+        <v>598.1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>11-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9771283</v>
+      </c>
+      <c r="D107" t="n">
+        <v>574.05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>579.6</v>
+      </c>
+      <c r="F107" t="n">
+        <v>582.15</v>
+      </c>
+      <c r="G107" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>12-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>5405464</v>
+      </c>
+      <c r="D108" t="n">
+        <v>584</v>
+      </c>
+      <c r="E108" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>589.9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>580.85</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>15-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>2573506</v>
+      </c>
+      <c r="D109" t="n">
+        <v>585</v>
+      </c>
+      <c r="E109" t="n">
+        <v>581.4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>587.9</v>
+      </c>
+      <c r="G109" t="n">
+        <v>579.6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1580870</v>
+      </c>
+      <c r="D110" t="n">
+        <v>582.75</v>
+      </c>
+      <c r="E110" t="n">
+        <v>578.4</v>
+      </c>
+      <c r="F110" t="n">
+        <v>582.75</v>
+      </c>
+      <c r="G110" t="n">
+        <v>577.15</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>17-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3911748</v>
+      </c>
+      <c r="D111" t="n">
+        <v>578.05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>574.75</v>
+      </c>
+      <c r="F111" t="n">
+        <v>580.75</v>
+      </c>
+      <c r="G111" t="n">
+        <v>569.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>18-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2081619</v>
+      </c>
+      <c r="D112" t="n">
+        <v>575.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>573.95</v>
+      </c>
+      <c r="F112" t="n">
+        <v>578.15</v>
+      </c>
+      <c r="G112" t="n">
+        <v>571.85</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>19-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>2645181</v>
+      </c>
+      <c r="D113" t="n">
+        <v>573.95</v>
+      </c>
+      <c r="E113" t="n">
+        <v>574.95</v>
+      </c>
+      <c r="F113" t="n">
+        <v>577.6</v>
+      </c>
+      <c r="G113" t="n">
+        <v>570.6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>22-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1873302</v>
+      </c>
+      <c r="D114" t="n">
+        <v>575.2</v>
+      </c>
+      <c r="E114" t="n">
+        <v>577.95</v>
+      </c>
+      <c r="F114" t="n">
+        <v>579.7</v>
+      </c>
+      <c r="G114" t="n">
+        <v>575.2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1421415</v>
+      </c>
+      <c r="D115" t="n">
+        <v>578.95</v>
+      </c>
+      <c r="E115" t="n">
+        <v>579.9</v>
+      </c>
+      <c r="F115" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="G115" t="n">
+        <v>576.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>24-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1844368</v>
+      </c>
+      <c r="D116" t="n">
+        <v>580.35</v>
+      </c>
+      <c r="E116" t="n">
+        <v>575.75</v>
+      </c>
+      <c r="F116" t="n">
+        <v>582.15</v>
+      </c>
+      <c r="G116" t="n">
+        <v>572.1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>25-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1874962</v>
+      </c>
+      <c r="D117" t="n">
+        <v>573.85</v>
+      </c>
+      <c r="E117" t="n">
+        <v>574.65</v>
+      </c>
+      <c r="F117" t="n">
+        <v>576</v>
+      </c>
+      <c r="G117" t="n">
+        <v>572.6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>26-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1547572</v>
+      </c>
+      <c r="D118" t="n">
+        <v>577</v>
+      </c>
+      <c r="E118" t="n">
+        <v>573.9</v>
+      </c>
+      <c r="F118" t="n">
+        <v>577.65</v>
+      </c>
+      <c r="G118" t="n">
+        <v>572.35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>29-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3555435</v>
+      </c>
+      <c r="D119" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>575.75</v>
+      </c>
+      <c r="F119" t="n">
+        <v>580.45</v>
+      </c>
+      <c r="G119" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>30-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>2241184</v>
+      </c>
+      <c r="D120" t="n">
+        <v>576.35</v>
+      </c>
+      <c r="E120" t="n">
+        <v>573.95</v>
+      </c>
+      <c r="F120" t="n">
+        <v>578.45</v>
+      </c>
+      <c r="G120" t="n">
+        <v>572.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>31-01-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3281866</v>
+      </c>
+      <c r="D121" t="n">
+        <v>574.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>575</v>
+      </c>
+      <c r="F121" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4626022</v>
+      </c>
+      <c r="D122" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>582</v>
+      </c>
+      <c r="G122" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>02-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>5216251</v>
+      </c>
+      <c r="D123" t="n">
+        <v>577</v>
+      </c>
+      <c r="E123" t="n">
+        <v>583.95</v>
+      </c>
+      <c r="F123" t="n">
+        <v>584.95</v>
+      </c>
+      <c r="G123" t="n">
+        <v>574.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>05-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5224734</v>
+      </c>
+      <c r="D124" t="n">
+        <v>584.05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>592</v>
+      </c>
+      <c r="F124" t="n">
+        <v>592.95</v>
+      </c>
+      <c r="G124" t="n">
+        <v>584.05</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>06-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2085502</v>
+      </c>
+      <c r="D125" t="n">
+        <v>593</v>
+      </c>
+      <c r="E125" t="n">
+        <v>593.55</v>
+      </c>
+      <c r="F125" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="G125" t="n">
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>07-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4035754</v>
+      </c>
+      <c r="D126" t="n">
+        <v>593.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>589.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>595.7</v>
+      </c>
+      <c r="G126" t="n">
+        <v>588.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>08-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3315152</v>
+      </c>
+      <c r="D127" t="n">
+        <v>586.05</v>
+      </c>
+      <c r="E127" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F127" t="n">
+        <v>591.4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>09-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2551037</v>
+      </c>
+      <c r="D128" t="n">
+        <v>587.8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>589.75</v>
+      </c>
+      <c r="F128" t="n">
+        <v>592.9</v>
+      </c>
+      <c r="G128" t="n">
+        <v>586.6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>12-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2669101</v>
+      </c>
+      <c r="D129" t="n">
+        <v>590.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>588.95</v>
+      </c>
+      <c r="F129" t="n">
+        <v>592.35</v>
+      </c>
+      <c r="G129" t="n">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>13-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2388838</v>
+      </c>
+      <c r="D130" t="n">
+        <v>590</v>
+      </c>
+      <c r="E130" t="n">
+        <v>592.75</v>
+      </c>
+      <c r="F130" t="n">
+        <v>593.45</v>
+      </c>
+      <c r="G130" t="n">
+        <v>589.55</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>14-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1936190</v>
+      </c>
+      <c r="D131" t="n">
+        <v>593.75</v>
+      </c>
+      <c r="E131" t="n">
+        <v>590.05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>594.65</v>
+      </c>
+      <c r="G131" t="n">
+        <v>589.65</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>15-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>2645626</v>
+      </c>
+      <c r="D132" t="n">
+        <v>590</v>
+      </c>
+      <c r="E132" t="n">
+        <v>589.15</v>
+      </c>
+      <c r="F132" t="n">
+        <v>591.6</v>
+      </c>
+      <c r="G132" t="n">
+        <v>587.55</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>16-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>4191003</v>
+      </c>
+      <c r="D133" t="n">
+        <v>590.05</v>
+      </c>
+      <c r="E133" t="n">
+        <v>585.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>591</v>
+      </c>
+      <c r="G133" t="n">
+        <v>582.4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>19-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2552097</v>
+      </c>
+      <c r="D134" t="n">
+        <v>585.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>586.25</v>
+      </c>
+      <c r="F134" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>581.55</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>20-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>5164767</v>
+      </c>
+      <c r="D135" t="n">
+        <v>586</v>
+      </c>
+      <c r="E135" t="n">
+        <v>572.1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>586.05</v>
+      </c>
+      <c r="G135" t="n">
+        <v>570.2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>21-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>6696796</v>
+      </c>
+      <c r="D136" t="n">
+        <v>572.1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>562.35</v>
+      </c>
+      <c r="F136" t="n">
+        <v>576.75</v>
+      </c>
+      <c r="G136" t="n">
+        <v>560.25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>22-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>2744549</v>
+      </c>
+      <c r="D137" t="n">
+        <v>564.45</v>
+      </c>
+      <c r="E137" t="n">
+        <v>562.35</v>
+      </c>
+      <c r="F137" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="G137" t="n">
+        <v>558.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>26-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3628956</v>
+      </c>
+      <c r="D138" t="n">
+        <v>566.65</v>
+      </c>
+      <c r="E138" t="n">
+        <v>575.55</v>
+      </c>
+      <c r="F138" t="n">
+        <v>577.3</v>
+      </c>
+      <c r="G138" t="n">
+        <v>566.65</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>27-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3489647</v>
+      </c>
+      <c r="D139" t="n">
+        <v>575.5</v>
+      </c>
+      <c r="E139" t="n">
+        <v>568.2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>575.55</v>
+      </c>
+      <c r="G139" t="n">
+        <v>566.05</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>28-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2564098</v>
+      </c>
+      <c r="D140" t="n">
+        <v>566.95</v>
+      </c>
+      <c r="E140" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>570.35</v>
+      </c>
+      <c r="G140" t="n">
+        <v>565.25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>29-02-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3610085</v>
+      </c>
+      <c r="D141" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>578</v>
+      </c>
+      <c r="F141" t="n">
+        <v>580.5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>01-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2353852</v>
+      </c>
+      <c r="D142" t="n">
+        <v>578.05</v>
+      </c>
+      <c r="E142" t="n">
+        <v>577.45</v>
+      </c>
+      <c r="F142" t="n">
+        <v>581.6</v>
+      </c>
+      <c r="G142" t="n">
+        <v>573.25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>04-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2060097</v>
+      </c>
+      <c r="D143" t="n">
+        <v>578.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>583.6</v>
+      </c>
+      <c r="G143" t="n">
+        <v>578.55</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>05-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2703486</v>
+      </c>
+      <c r="D144" t="n">
+        <v>582.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>585.55</v>
+      </c>
+      <c r="F144" t="n">
+        <v>588.8</v>
+      </c>
+      <c r="G144" t="n">
+        <v>579.5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>06-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1874494</v>
+      </c>
+      <c r="D145" t="n">
+        <v>585.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>585.15</v>
+      </c>
+      <c r="F145" t="n">
+        <v>589.95</v>
+      </c>
+      <c r="G145" t="n">
+        <v>584.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>07-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1431702</v>
+      </c>
+      <c r="D146" t="n">
+        <v>585</v>
+      </c>
+      <c r="E146" t="n">
+        <v>589.45</v>
+      </c>
+      <c r="F146" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="G146" t="n">
+        <v>583.1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>11-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1925221</v>
+      </c>
+      <c r="D147" t="n">
+        <v>589.6</v>
+      </c>
+      <c r="E147" t="n">
+        <v>588.35</v>
+      </c>
+      <c r="F147" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>587.05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>12-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1811625</v>
+      </c>
+      <c r="D148" t="n">
+        <v>588.6</v>
+      </c>
+      <c r="E148" t="n">
+        <v>588.25</v>
+      </c>
+      <c r="F148" t="n">
+        <v>589</v>
+      </c>
+      <c r="G148" t="n">
+        <v>585.05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>13-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>2723687</v>
+      </c>
+      <c r="D149" t="n">
+        <v>586.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>581.45</v>
+      </c>
+      <c r="F149" t="n">
+        <v>588.35</v>
+      </c>
+      <c r="G149" t="n">
+        <v>580.7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>14-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2576036</v>
+      </c>
+      <c r="D150" t="n">
+        <v>581</v>
+      </c>
+      <c r="E150" t="n">
+        <v>584</v>
+      </c>
+      <c r="F150" t="n">
+        <v>586</v>
+      </c>
+      <c r="G150" t="n">
+        <v>577.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>15-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1768650</v>
+      </c>
+      <c r="D151" t="n">
+        <v>583</v>
+      </c>
+      <c r="E151" t="n">
+        <v>584.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>587.15</v>
+      </c>
+      <c r="G151" t="n">
+        <v>579.6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>18-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1287820</v>
+      </c>
+      <c r="D152" t="n">
+        <v>584</v>
+      </c>
+      <c r="E152" t="n">
+        <v>583.1</v>
+      </c>
+      <c r="F152" t="n">
+        <v>586.45</v>
+      </c>
+      <c r="G152" t="n">
+        <v>581.55</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>19-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>15172575</v>
+      </c>
+      <c r="D153" t="n">
+        <v>582.85</v>
+      </c>
+      <c r="E153" t="n">
+        <v>565.35</v>
+      </c>
+      <c r="F153" t="n">
+        <v>583.7</v>
+      </c>
+      <c r="G153" t="n">
+        <v>556.3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>20-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>15832545</v>
+      </c>
+      <c r="D154" t="n">
+        <v>565.35</v>
+      </c>
+      <c r="E154" t="n">
+        <v>560.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>566.55</v>
+      </c>
+      <c r="G154" t="n">
+        <v>551.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>21-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>13589092</v>
+      </c>
+      <c r="D155" t="n">
+        <v>561.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>562.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>575</v>
+      </c>
+      <c r="G155" t="n">
+        <v>557.25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>22-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>10052432</v>
+      </c>
+      <c r="D156" t="n">
+        <v>562.85</v>
+      </c>
+      <c r="E156" t="n">
+        <v>554.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>563.95</v>
+      </c>
+      <c r="G156" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>25-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>8585063</v>
+      </c>
+      <c r="D157" t="n">
+        <v>556.7</v>
+      </c>
+      <c r="E157" t="n">
+        <v>558.05</v>
+      </c>
+      <c r="F157" t="n">
+        <v>559.85</v>
+      </c>
+      <c r="G157" t="n">
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>26-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>4720207</v>
+      </c>
+      <c r="D158" t="n">
+        <v>559</v>
+      </c>
+      <c r="E158" t="n">
+        <v>556.1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>559</v>
+      </c>
+      <c r="G158" t="n">
+        <v>554.15</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>27-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>3623708</v>
+      </c>
+      <c r="D159" t="n">
+        <v>556.1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>555.4</v>
+      </c>
+      <c r="F159" t="n">
+        <v>557.5</v>
+      </c>
+      <c r="G159" t="n">
+        <v>551.25</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>28-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>8154514</v>
+      </c>
+      <c r="D160" t="n">
+        <v>557</v>
+      </c>
+      <c r="E160" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="F160" t="n">
+        <v>565.8</v>
+      </c>
+      <c r="G160" t="n">
+        <v>555.75</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>29-03-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>5575648</v>
+      </c>
+      <c r="D161" t="n">
+        <v>567.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>565.75</v>
+      </c>
+      <c r="F161" t="n">
+        <v>569.4</v>
+      </c>
+      <c r="G161" t="n">
+        <v>563.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>01-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>8194319</v>
+      </c>
+      <c r="D162" t="n">
+        <v>568</v>
+      </c>
+      <c r="E162" t="n">
+        <v>568.85</v>
+      </c>
+      <c r="F162" t="n">
+        <v>573.55</v>
+      </c>
+      <c r="G162" t="n">
+        <v>566.8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>02-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4834554</v>
+      </c>
+      <c r="D163" t="n">
+        <v>570</v>
+      </c>
+      <c r="E163" t="n">
+        <v>572.9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>567.5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>03-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>4829568</v>
+      </c>
+      <c r="D164" t="n">
+        <v>573.1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>576.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>579</v>
+      </c>
+      <c r="G164" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>04-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>3924251</v>
+      </c>
+      <c r="D165" t="n">
+        <v>577.75</v>
+      </c>
+      <c r="E165" t="n">
+        <v>578.05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>580</v>
+      </c>
+      <c r="G165" t="n">
+        <v>575.65</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>05-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>3300134</v>
+      </c>
+      <c r="D166" t="n">
+        <v>578.85</v>
+      </c>
+      <c r="E166" t="n">
+        <v>576.1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>579.65</v>
+      </c>
+      <c r="G166" t="n">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>08-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>3298221</v>
+      </c>
+      <c r="D167" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="E167" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>579.75</v>
+      </c>
+      <c r="G167" t="n">
+        <v>571.55</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>09-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>4663495</v>
+      </c>
+      <c r="D168" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>568.4</v>
+      </c>
+      <c r="F168" t="n">
+        <v>576.2</v>
+      </c>
+      <c r="G168" t="n">
+        <v>565.75</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>10-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2487296</v>
+      </c>
+      <c r="D169" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>573.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>574.5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>565.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>11-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>3772650</v>
+      </c>
+      <c r="D170" t="n">
+        <v>573.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>575.25</v>
+      </c>
+      <c r="F170" t="n">
+        <v>579</v>
+      </c>
+      <c r="G170" t="n">
+        <v>573.2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>12-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>3152068</v>
+      </c>
+      <c r="D171" t="n">
+        <v>576</v>
+      </c>
+      <c r="E171" t="n">
+        <v>576.15</v>
+      </c>
+      <c r="F171" t="n">
+        <v>579.5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>575.9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>15-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>7079255</v>
+      </c>
+      <c r="D172" t="n">
+        <v>578.95</v>
+      </c>
+      <c r="E172" t="n">
+        <v>589.75</v>
+      </c>
+      <c r="F172" t="n">
+        <v>589.85</v>
+      </c>
+      <c r="G172" t="n">
+        <v>578.1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>5290388</v>
+      </c>
+      <c r="D173" t="n">
+        <v>590</v>
+      </c>
+      <c r="E173" t="n">
+        <v>589.1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>592.5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>585.7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>17-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>3814643</v>
+      </c>
+      <c r="D174" t="n">
+        <v>589.15</v>
+      </c>
+      <c r="E174" t="n">
+        <v>584.35</v>
+      </c>
+      <c r="F174" t="n">
+        <v>590.75</v>
+      </c>
+      <c r="G174" t="n">
+        <v>581.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>18-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>3808318</v>
+      </c>
+      <c r="D175" t="n">
+        <v>583.85</v>
+      </c>
+      <c r="E175" t="n">
+        <v>579.15</v>
+      </c>
+      <c r="F175" t="n">
+        <v>585.85</v>
+      </c>
+      <c r="G175" t="n">
+        <v>576.55</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>19-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>3507875</v>
+      </c>
+      <c r="D176" t="n">
+        <v>582</v>
+      </c>
+      <c r="E176" t="n">
+        <v>585.35</v>
+      </c>
+      <c r="F176" t="n">
+        <v>588.4</v>
+      </c>
+      <c r="G176" t="n">
+        <v>578.05</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>22-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>3190989</v>
+      </c>
+      <c r="D177" t="n">
+        <v>586.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>583.15</v>
+      </c>
+      <c r="F177" t="n">
+        <v>589.4</v>
+      </c>
+      <c r="G177" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>23-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3699539</v>
+      </c>
+      <c r="D178" t="n">
+        <v>583.85</v>
+      </c>
+      <c r="E178" t="n">
+        <v>580.85</v>
+      </c>
+      <c r="F178" t="n">
+        <v>589</v>
+      </c>
+      <c r="G178" t="n">
+        <v>580.25</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>24-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2968087</v>
+      </c>
+      <c r="D179" t="n">
+        <v>582.35</v>
+      </c>
+      <c r="E179" t="n">
+        <v>576.3</v>
+      </c>
+      <c r="F179" t="n">
+        <v>583.4</v>
+      </c>
+      <c r="G179" t="n">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>25-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>2269626</v>
+      </c>
+      <c r="D180" t="n">
+        <v>577</v>
+      </c>
+      <c r="E180" t="n">
+        <v>579.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>581.25</v>
+      </c>
+      <c r="G180" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>26-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2194810</v>
+      </c>
+      <c r="D181" t="n">
+        <v>579.95</v>
+      </c>
+      <c r="E181" t="n">
+        <v>581.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>584.9</v>
+      </c>
+      <c r="G181" t="n">
+        <v>578.6</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>27-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1379864</v>
+      </c>
+      <c r="D182" t="n">
+        <v>581</v>
+      </c>
+      <c r="E182" t="n">
+        <v>581.2</v>
+      </c>
+      <c r="F182" t="n">
+        <v>584.5</v>
+      </c>
+      <c r="G182" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>29-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>882950</v>
+      </c>
+      <c r="D183" t="n">
+        <v>581.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>583.15</v>
+      </c>
+      <c r="F183" t="n">
+        <v>583.95</v>
+      </c>
+      <c r="G183" t="n">
+        <v>581.35</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>30-04-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>632716</v>
+      </c>
+      <c r="D184" t="n">
+        <v>583.15</v>
+      </c>
+      <c r="E184" t="n">
+        <v>582</v>
+      </c>
+      <c r="F184" t="n">
+        <v>583.65</v>
+      </c>
+      <c r="G184" t="n">
+        <v>581.3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>02-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2169820</v>
+      </c>
+      <c r="D185" t="n">
+        <v>581.4</v>
+      </c>
+      <c r="E185" t="n">
+        <v>582.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>587</v>
+      </c>
+      <c r="G185" t="n">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>03-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>2302837</v>
+      </c>
+      <c r="D186" t="n">
+        <v>582.75</v>
+      </c>
+      <c r="E186" t="n">
+        <v>582.3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>586.4</v>
+      </c>
+      <c r="G186" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>06-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2443510</v>
+      </c>
+      <c r="D187" t="n">
+        <v>582</v>
+      </c>
+      <c r="E187" t="n">
+        <v>579.05</v>
+      </c>
+      <c r="F187" t="n">
+        <v>586.15</v>
+      </c>
+      <c r="G187" t="n">
+        <v>578.65</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>07-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>1688537</v>
+      </c>
+      <c r="D188" t="n">
+        <v>579.15</v>
+      </c>
+      <c r="E188" t="n">
+        <v>579.95</v>
+      </c>
+      <c r="F188" t="n">
+        <v>584.35</v>
+      </c>
+      <c r="G188" t="n">
+        <v>579.15</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>08-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1292162</v>
+      </c>
+      <c r="D189" t="n">
+        <v>580.3</v>
+      </c>
+      <c r="E189" t="n">
+        <v>578.5</v>
+      </c>
+      <c r="F189" t="n">
+        <v>582</v>
+      </c>
+      <c r="G189" t="n">
+        <v>578.2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>10-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1159220</v>
+      </c>
+      <c r="D190" t="n">
+        <v>579</v>
+      </c>
+      <c r="E190" t="n">
+        <v>579.4</v>
+      </c>
+      <c r="F190" t="n">
+        <v>582.5</v>
+      </c>
+      <c r="G190" t="n">
+        <v>578.55</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>13-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>4761120</v>
+      </c>
+      <c r="D191" t="n">
+        <v>580.25</v>
+      </c>
+      <c r="E191" t="n">
+        <v>589.45</v>
+      </c>
+      <c r="F191" t="n">
+        <v>590</v>
+      </c>
+      <c r="G191" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>14-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>4215772</v>
+      </c>
+      <c r="D192" t="n">
+        <v>590</v>
+      </c>
+      <c r="E192" t="n">
+        <v>589.8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>594</v>
+      </c>
+      <c r="G192" t="n">
+        <v>588.3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>15-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>7144102</v>
+      </c>
+      <c r="D193" t="n">
+        <v>590.75</v>
+      </c>
+      <c r="E193" t="n">
+        <v>599.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>599.3</v>
+      </c>
+      <c r="G193" t="n">
+        <v>589.3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>16-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>4645547</v>
+      </c>
+      <c r="D194" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="E194" t="n">
+        <v>592.6</v>
+      </c>
+      <c r="F194" t="n">
+        <v>600</v>
+      </c>
+      <c r="G194" t="n">
+        <v>590.05</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>17-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>3460602</v>
+      </c>
+      <c r="D195" t="n">
+        <v>592.8</v>
+      </c>
+      <c r="E195" t="n">
+        <v>591.95</v>
+      </c>
+      <c r="F195" t="n">
+        <v>596.7</v>
+      </c>
+      <c r="G195" t="n">
+        <v>590.5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>20-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>4649647</v>
+      </c>
+      <c r="D196" t="n">
+        <v>594</v>
+      </c>
+      <c r="E196" t="n">
+        <v>591.9</v>
+      </c>
+      <c r="F196" t="n">
+        <v>596.35</v>
+      </c>
+      <c r="G196" t="n">
+        <v>580.1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>21-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>4313358</v>
+      </c>
+      <c r="D197" t="n">
+        <v>592</v>
+      </c>
+      <c r="E197" t="n">
+        <v>594.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>597.5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>586.6</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>22-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>3748577</v>
+      </c>
+      <c r="D198" t="n">
+        <v>593.9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>596.85</v>
+      </c>
+      <c r="F198" t="n">
+        <v>597.25</v>
+      </c>
+      <c r="G198" t="n">
+        <v>591.75</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>23-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>3555763</v>
+      </c>
+      <c r="D199" t="n">
+        <v>595.7</v>
+      </c>
+      <c r="E199" t="n">
+        <v>593.15</v>
+      </c>
+      <c r="F199" t="n">
+        <v>596.65</v>
+      </c>
+      <c r="G199" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>24-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>3990201</v>
+      </c>
+      <c r="D200" t="n">
+        <v>593.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>585.1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>594.45</v>
+      </c>
+      <c r="G200" t="n">
+        <v>582.3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>27-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>7407211</v>
+      </c>
+      <c r="D201" t="n">
+        <v>585</v>
+      </c>
+      <c r="E201" t="n">
+        <v>578.25</v>
+      </c>
+      <c r="F201" t="n">
+        <v>588</v>
+      </c>
+      <c r="G201" t="n">
+        <v>568.4</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>28-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>4392067</v>
+      </c>
+      <c r="D202" t="n">
+        <v>578.8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>573</v>
+      </c>
+      <c r="F202" t="n">
+        <v>585</v>
+      </c>
+      <c r="G202" t="n">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>29-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2622447</v>
+      </c>
+      <c r="D203" t="n">
+        <v>573.95</v>
+      </c>
+      <c r="E203" t="n">
+        <v>575.65</v>
+      </c>
+      <c r="F203" t="n">
+        <v>580</v>
+      </c>
+      <c r="G203" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>30-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>5592247</v>
+      </c>
+      <c r="D204" t="n">
+        <v>577.65</v>
+      </c>
+      <c r="E204" t="n">
+        <v>566.4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>581.15</v>
+      </c>
+      <c r="G204" t="n">
+        <v>553.95</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>31-05-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>6164219</v>
+      </c>
+      <c r="D205" t="n">
+        <v>570</v>
+      </c>
+      <c r="E205" t="n">
+        <v>556.65</v>
+      </c>
+      <c r="F205" t="n">
+        <v>572</v>
+      </c>
+      <c r="G205" t="n">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>03-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>7578912</v>
+      </c>
+      <c r="D206" t="n">
+        <v>557</v>
+      </c>
+      <c r="E206" t="n">
+        <v>562.95</v>
+      </c>
+      <c r="F206" t="n">
+        <v>564.7</v>
+      </c>
+      <c r="G206" t="n">
+        <v>542.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>04-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>5282965</v>
+      </c>
+      <c r="D207" t="n">
+        <v>563.1</v>
+      </c>
+      <c r="E207" t="n">
+        <v>568.95</v>
+      </c>
+      <c r="F207" t="n">
+        <v>571</v>
+      </c>
+      <c r="G207" t="n">
+        <v>555.55</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>05-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>5054761</v>
+      </c>
+      <c r="D208" t="n">
+        <v>570.05</v>
+      </c>
+      <c r="E208" t="n">
+        <v>562.2</v>
+      </c>
+      <c r="F208" t="n">
+        <v>575</v>
+      </c>
+      <c r="G208" t="n">
+        <v>559.65</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>06-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2240679</v>
+      </c>
+      <c r="D209" t="n">
+        <v>563.9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>566.3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>569.8</v>
+      </c>
+      <c r="G209" t="n">
+        <v>561.25</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
           <t>07-06-2024 00:00:00</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C210" t="n">
         <v>3339099</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D210" t="n">
         <v>567.3</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E210" t="n">
         <v>571.65</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F210" t="n">
         <v>575.95</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G210" t="n">
         <v>565.3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>10-06-2024 00:00:00</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>1085477</v>
+      </c>
+      <c r="D211" t="n">
+        <v>573.9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>568.6</v>
+      </c>
+      <c r="F211" t="n">
+        <v>575.7</v>
+      </c>
+      <c r="G211" t="n">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
